--- a/4. Efecto Hall/CompleteData/Datos_Caracterizacion.xlsx
+++ b/4. Efecto Hall/CompleteData/Datos_Caracterizacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Documents\GitHub\Intermedio\4. Efecto Hall\CompleteData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9ADE99-E802-400D-B75C-7BCA1F9ECA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2868F83-C04C-4C17-AB71-F6305F54C206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7092" yWindow="2340" windowWidth="11160" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>A</t>
+    <t>B (mT)</t>
   </si>
   <si>
-    <t>mT</t>
+    <t>I (A)</t>
+  </si>
+  <si>
+    <t>I_err (A)</t>
+  </si>
+  <si>
+    <t>B_err (mT)</t>
   </si>
 </sst>
 </file>
@@ -348,164 +354,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0.01</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.05</v>
       </c>
       <c r="B3">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>0.01</v>
+      </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.1</v>
       </c>
       <c r="B4">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>0.01</v>
+      </c>
+      <c r="D4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.15</v>
       </c>
       <c r="B5">
         <v>32.799999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>0.01</v>
+      </c>
+      <c r="D5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.2</v>
       </c>
       <c r="B6">
         <v>44.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>0.01</v>
+      </c>
+      <c r="D6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.25</v>
       </c>
       <c r="B7">
         <v>54.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>0.01</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.3</v>
       </c>
       <c r="B8">
         <v>66.400000000000006</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>0.01</v>
+      </c>
+      <c r="D8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.35</v>
       </c>
       <c r="B9">
         <v>78.099999999999994</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>0.01</v>
+      </c>
+      <c r="D9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.4</v>
       </c>
       <c r="B10">
         <v>89.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>0.01</v>
+      </c>
+      <c r="D10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.45</v>
       </c>
       <c r="B11">
         <v>100.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>0.01</v>
+      </c>
+      <c r="D11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.5</v>
       </c>
       <c r="B12">
         <v>112.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>0.01</v>
+      </c>
+      <c r="D12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.55000000000000004</v>
       </c>
       <c r="B13">
         <v>123.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>0.01</v>
+      </c>
+      <c r="D13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.6</v>
       </c>
       <c r="B14">
         <v>135.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>0.01</v>
+      </c>
+      <c r="D14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.65</v>
       </c>
       <c r="B15">
         <v>148.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>0.01</v>
+      </c>
+      <c r="D15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.7</v>
       </c>
       <c r="B16">
         <v>158.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>0.01</v>
+      </c>
+      <c r="D16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.75</v>
       </c>
       <c r="B17">
         <v>173.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>0.01</v>
+      </c>
+      <c r="D17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.8</v>
       </c>
       <c r="B18">
         <v>182.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>0.01</v>
+      </c>
+      <c r="D18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.85</v>
       </c>
       <c r="B19">
         <v>192.2</v>
+      </c>
+      <c r="C19">
+        <v>0.01</v>
+      </c>
+      <c r="D19">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
